--- a/SmartSSO/Content/Template/颜色模板.xlsx
+++ b/SmartSSO/Content/Template/颜色模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>硬度</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -443,8 +455,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -457,8 +472,11 @@
       <c r="D2" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -471,8 +489,11 @@
       <c r="D3" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -486,7 +507,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -500,7 +521,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>

--- a/SmartSSO/Content/Template/颜色模板.xlsx
+++ b/SmartSSO/Content/Template/颜色模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>硬度</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -535,6 +535,146 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartSSO/Content/Template/颜色模板.xlsx
+++ b/SmartSSO/Content/Template/颜色模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>硬度</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,244 +438,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>70</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>75</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>75</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>76</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
         <v>78</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <v>79</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>80</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <v>81</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>82</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
         <v>84</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
         <v>1.5</v>
       </c>
     </row>

--- a/SmartSSO/Content/Template/颜色模板.xlsx
+++ b/SmartSSO/Content/Template/颜色模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\inquiry\sso\SmartSSO\Content\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63B98284-4574-45BF-98DA-0506BAFE12BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,10 +438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
